--- a/data/dataRDAOverlap.xlsx
+++ b/data/dataRDAOverlap.xlsx
@@ -360,1397 +360,1397 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>OC sed. rate (g C m-2 d-1)</t>
+          <t>dataF$Combined</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Combined</t>
+          <t>dataF$`OC sed. rate (g C m-2 d-1)`</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BP 2006-05-18</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>1.290298404325461</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BP 2006-05-18</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BP 2006-06-15</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>0.565059238884132</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BP 2006-06-15</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BP 2006-07-13</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>1.182969964232435</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BP 2006-07-13</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BP 2006-08-10</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>0.450401478850263</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BP 2006-08-10</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BP 2006-09-07</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>0.9483687881535803</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BP 2006-09-07</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BP 2006-10-05</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>0.652827301160921</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BP 2006-10-05</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BP 2006-11-02</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>0.9852656433525708</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BP 2006-11-02</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BP 2006-11-30</t>
+        </is>
+      </c>
+      <c r="B9">
         <v>0.4539366264064691</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BP 2006-11-30</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BP 2007-01-24</t>
+        </is>
+      </c>
+      <c r="B10">
         <v>1.229316547382426</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>BP 2007-01-24</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BP 2007-02-15</t>
+        </is>
+      </c>
+      <c r="B11">
         <v>0.384157917484542</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>BP 2007-02-15</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BP 2007-03-15</t>
+        </is>
+      </c>
+      <c r="B12">
         <v>0.8143633086936769</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BP 2007-03-15</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BP 2007-04-19</t>
+        </is>
+      </c>
+      <c r="B13">
         <v>1.340722368723062</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BP 2007-04-19</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BP 2007-05-17</t>
+        </is>
+      </c>
+      <c r="B14">
         <v>1.490761563271751</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BP 2007-05-17</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BP 2007-06-14</t>
+        </is>
+      </c>
+      <c r="B15">
         <v>2.500533381128984</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BP 2007-06-14</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BP 2007-07-16</t>
+        </is>
+      </c>
+      <c r="B16">
         <v>2.469189805153133</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BP 2007-07-16</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BP 2007-08-08</t>
+        </is>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>BP 2007-08-08</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BP 2007-09-11</t>
+        </is>
+      </c>
+      <c r="B18">
         <v>1.674978864449344</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BP 2007-09-11</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BP 2007-10-15</t>
+        </is>
+      </c>
+      <c r="B19">
         <v>1.341031595267631</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BP 2007-10-15</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BP 2007-11-15</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>0.5483753549092405</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BP 2007-11-15</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BP 2007-12-13</t>
+        </is>
+      </c>
+      <c r="B21">
         <v>0.8566178936040352</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BP 2007-12-13</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BP 2008-01-17</t>
+        </is>
+      </c>
+      <c r="B22">
         <v>0.6829367577917972</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>BP 2008-01-17</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BP 2008-02-19</t>
+        </is>
+      </c>
+      <c r="B23">
         <v>0.6132363861737116</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BP 2008-02-19</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BP 2008-03-18</t>
+        </is>
+      </c>
+      <c r="B24">
         <v>1.246494310336729</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>BP 2008-03-18</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CH 2006-04-20</t>
+        </is>
+      </c>
+      <c r="B25">
         <v>0.8676745422283362</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CH 2006-04-20</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CH 2006-05-18</t>
+        </is>
+      </c>
+      <c r="B26">
         <v>0.9650850287610718</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CH 2006-05-18</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CH 2006-07-13</t>
+        </is>
+      </c>
+      <c r="B27">
         <v>0.4275533329951381</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CH 2006-07-13</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CH 2006-08-10</t>
+        </is>
+      </c>
+      <c r="B28">
         <v>0.2835292930278588</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CH 2006-08-10</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CH 2006-09-07</t>
+        </is>
+      </c>
+      <c r="B29">
         <v>0.9395899477137341</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CH 2006-09-07</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CH 2006-10-05</t>
+        </is>
+      </c>
+      <c r="B30">
         <v>1.1228526761231</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CH 2006-10-05</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CH 2006-11-02</t>
+        </is>
+      </c>
+      <c r="B31">
         <v>1.235562508728095</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CH 2006-11-02</t>
-        </is>
-      </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CH 2006-11-30</t>
+        </is>
+      </c>
+      <c r="B32">
         <v>0.487781507197898</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CH 2006-11-30</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CH 2006-12-20</t>
+        </is>
+      </c>
+      <c r="B33">
         <v>0.5109639681026237</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CH 2006-12-20</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CH 2007-01-24</t>
+        </is>
+      </c>
+      <c r="B34">
         <v>0.4493465312245711</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>CH 2007-01-24</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CH 2007-02-15</t>
+        </is>
+      </c>
+      <c r="B35">
         <v>0.2992024970848352</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>CH 2007-02-15</t>
-        </is>
-      </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CH 2007-03-15</t>
+        </is>
+      </c>
+      <c r="B36">
         <v>0.4453298251427393</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>CH 2007-03-15</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CH 2007-04-19</t>
+        </is>
+      </c>
+      <c r="B37">
         <v>0.3166256961528646</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CH 2007-04-19</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CH 2007-05-17</t>
+        </is>
+      </c>
+      <c r="B38">
         <v>0.3072065135102279</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>CH 2007-05-17</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CH 2007-06-14</t>
+        </is>
+      </c>
+      <c r="B39">
         <v>0.5802186155108154</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>CH 2007-06-14</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CH 2007-07-16</t>
+        </is>
+      </c>
+      <c r="B40">
         <v>0.7508263996293815</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>CH 2007-07-16</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CH 2007-08-08</t>
+        </is>
+      </c>
+      <c r="B41">
         <v>0.3584704731451751</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>CH 2007-08-08</t>
-        </is>
-      </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CH 2007-09-11</t>
+        </is>
+      </c>
+      <c r="B42">
         <v>0.5756072347744663</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>CH 2007-09-11</t>
-        </is>
-      </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CH 2007-10-15</t>
+        </is>
+      </c>
+      <c r="B43">
         <v>0.4047510682935785</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>CH 2007-10-15</t>
-        </is>
-      </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CH 2007-11-15</t>
+        </is>
+      </c>
+      <c r="B44">
         <v>0.4088872459775869</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>CH 2007-11-15</t>
-        </is>
-      </c>
     </row>
     <row r="45">
-      <c r="B45" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>CH 2007-12-13</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CH 2008-01-17</t>
+        </is>
+      </c>
+      <c r="B46">
         <v>0.3363508592967231</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CH 2008-01-17</t>
-        </is>
-      </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CH 2008-02-19</t>
+        </is>
+      </c>
+      <c r="B47">
         <v>0.3116142092305593</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CH 2008-02-19</t>
-        </is>
-      </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CH 2008-03-18</t>
+        </is>
+      </c>
+      <c r="B48">
         <v>0.3094438575727165</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CH 2008-03-18</t>
-        </is>
-      </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CL 2006-05-18</t>
+        </is>
+      </c>
+      <c r="B49">
         <v>0.3089709592869438</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>CL 2006-05-18</t>
-        </is>
-      </c>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>CL 2006-06-15</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CL 2006-07-13</t>
+        </is>
+      </c>
+      <c r="B51">
         <v>0.7228475274523902</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>CL 2006-07-13</t>
-        </is>
-      </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CL 2006-08-10</t>
+        </is>
+      </c>
+      <c r="B52">
         <v>0.7766926238374335</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>CL 2006-08-10</t>
-        </is>
-      </c>
     </row>
     <row r="53">
-      <c r="A53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CL 2006-09-07</t>
+        </is>
+      </c>
+      <c r="B53">
         <v>2.794199081183045</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CL 2006-09-07</t>
-        </is>
-      </c>
     </row>
     <row r="54">
-      <c r="A54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CL 2006-10-05</t>
+        </is>
+      </c>
+      <c r="B54">
         <v>0.8224609896677724</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>CL 2006-10-05</t>
-        </is>
-      </c>
     </row>
     <row r="55">
-      <c r="A55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CL 2006-11-02</t>
+        </is>
+      </c>
+      <c r="B55">
         <v>0.6481716534104246</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>CL 2006-11-02</t>
-        </is>
-      </c>
     </row>
     <row r="56">
-      <c r="A56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CL 2006-11-30</t>
+        </is>
+      </c>
+      <c r="B56">
         <v>0.1699104092711298</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>CL 2006-11-30</t>
-        </is>
-      </c>
     </row>
     <row r="57">
-      <c r="A57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CL 2006-12-20</t>
+        </is>
+      </c>
+      <c r="B57">
         <v>0.417144922642849</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>CL 2006-12-20</t>
-        </is>
-      </c>
     </row>
     <row r="58">
-      <c r="A58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CL 2007-01-24</t>
+        </is>
+      </c>
+      <c r="B58">
         <v>0.3621477361131641</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>CL 2007-01-24</t>
-        </is>
-      </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CL 2007-02-15</t>
+        </is>
+      </c>
+      <c r="B59">
         <v>0.1087175183345706</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>CL 2007-02-15</t>
-        </is>
-      </c>
     </row>
     <row r="60">
-      <c r="A60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CL 2007-03-15</t>
+        </is>
+      </c>
+      <c r="B60">
         <v>0.2618402469779296</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>CL 2007-03-15</t>
-        </is>
-      </c>
     </row>
     <row r="61">
-      <c r="A61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CL 2007-04-19</t>
+        </is>
+      </c>
+      <c r="B61">
         <v>0</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>CL 2007-04-19</t>
-        </is>
-      </c>
     </row>
     <row r="62">
-      <c r="A62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CL 2007-05-17</t>
+        </is>
+      </c>
+      <c r="B62">
         <v>0.4162213333289095</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>CL 2007-05-17</t>
-        </is>
-      </c>
     </row>
     <row r="63">
-      <c r="A63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CL 2007-06-14</t>
+        </is>
+      </c>
+      <c r="B63">
         <v>0.5531979364896982</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>CL 2007-06-14</t>
-        </is>
-      </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CL 2007-07-16</t>
+        </is>
+      </c>
+      <c r="B64">
         <v>0.6654975905008113</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>CL 2007-07-16</t>
-        </is>
-      </c>
     </row>
     <row r="65">
-      <c r="A65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CL 2007-08-08</t>
+        </is>
+      </c>
+      <c r="B65">
         <v>0.6847886452025094</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>CL 2007-08-08</t>
-        </is>
-      </c>
     </row>
     <row r="66">
-      <c r="A66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CL 2007-09-11</t>
+        </is>
+      </c>
+      <c r="B66">
         <v>0.6760060535772842</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>CL 2007-09-11</t>
-        </is>
-      </c>
     </row>
     <row r="67">
-      <c r="A67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CL 2007-10-15</t>
+        </is>
+      </c>
+      <c r="B67">
         <v>0.7818226742927524</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>CL 2007-10-15</t>
-        </is>
-      </c>
     </row>
     <row r="68">
-      <c r="A68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CL 2007-11-15</t>
+        </is>
+      </c>
+      <c r="B68">
         <v>0.3986115782456648</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>CL 2007-11-15</t>
-        </is>
-      </c>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
+      <c r="A69" t="inlineStr">
         <is>
           <t>CL 2007-12-13</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CL 2008-01-17</t>
+        </is>
+      </c>
+      <c r="B70">
         <v>0.3280093516798149</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>CL 2008-01-17</t>
-        </is>
-      </c>
     </row>
     <row r="71">
-      <c r="A71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CL 2008-02-19</t>
+        </is>
+      </c>
+      <c r="B71">
         <v>0.1003502517787603</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>CL 2008-02-19</t>
-        </is>
-      </c>
     </row>
     <row r="72">
-      <c r="A72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CL 2008-03-18</t>
+        </is>
+      </c>
+      <c r="B72">
         <v>0.2228256897315996</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>CL 2008-03-18</t>
-        </is>
-      </c>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>CN 2006-04-20</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CN 2006-05-18</t>
+        </is>
+      </c>
+      <c r="B74">
         <v>1.720836635785624</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>CN 2006-05-18</t>
-        </is>
-      </c>
     </row>
     <row r="75">
-      <c r="B75" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>CN 2006-06-15</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CN 2006-07-13</t>
+        </is>
+      </c>
+      <c r="B76">
         <v>1.609517221748461</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>CN 2006-07-13</t>
-        </is>
-      </c>
     </row>
     <row r="77">
-      <c r="A77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CN 2006-08-10</t>
+        </is>
+      </c>
+      <c r="B77">
         <v>2.031219467135676</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>CN 2006-08-10</t>
-        </is>
-      </c>
     </row>
     <row r="78">
-      <c r="B78" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>CN 2006-09-07</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="inlineStr">
+      <c r="A79" t="inlineStr">
         <is>
           <t>CN 2006-10-05</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CN 2006-11-02</t>
+        </is>
+      </c>
+      <c r="B80">
         <v>2.785158678642631</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>CN 2006-11-02</t>
-        </is>
-      </c>
     </row>
     <row r="81">
-      <c r="A81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CN 2006-11-30</t>
+        </is>
+      </c>
+      <c r="B81">
         <v>0.537303763108351</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>CN 2006-11-30</t>
-        </is>
-      </c>
     </row>
     <row r="82">
-      <c r="A82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CN 2006-12-20</t>
+        </is>
+      </c>
+      <c r="B82">
         <v>0.7526382581934651</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>CN 2006-12-20</t>
-        </is>
-      </c>
     </row>
     <row r="83">
-      <c r="A83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CN 2007-01-24</t>
+        </is>
+      </c>
+      <c r="B83">
         <v>1.832269829643075</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>CN 2007-01-24</t>
-        </is>
-      </c>
     </row>
     <row r="84">
-      <c r="A84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CN 2007-02-15</t>
+        </is>
+      </c>
+      <c r="B84">
         <v>0.9415266289472181</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>CN 2007-02-15</t>
-        </is>
-      </c>
     </row>
     <row r="85">
-      <c r="B85" t="inlineStr">
+      <c r="A85" t="inlineStr">
         <is>
           <t>CN 2007-03-15</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CN 2007-04-19</t>
+        </is>
+      </c>
+      <c r="B86">
         <v>0.7926668003066853</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>CN 2007-04-19</t>
-        </is>
-      </c>
     </row>
     <row r="87">
-      <c r="A87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CN 2007-05-17</t>
+        </is>
+      </c>
+      <c r="B87">
         <v>1.973085358781913</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>CN 2007-05-17</t>
-        </is>
-      </c>
     </row>
     <row r="88">
-      <c r="B88" t="inlineStr">
+      <c r="A88" t="inlineStr">
         <is>
           <t>CN 2007-06-14</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CN 2007-07-16</t>
+        </is>
+      </c>
+      <c r="B89">
         <v>2.480105045493279</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>CN 2007-07-16</t>
-        </is>
-      </c>
     </row>
     <row r="90">
-      <c r="A90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CN 2007-08-08</t>
+        </is>
+      </c>
+      <c r="B90">
         <v>1.081423176949782</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>CN 2007-08-08</t>
-        </is>
-      </c>
     </row>
     <row r="91">
-      <c r="A91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CN 2007-09-11</t>
+        </is>
+      </c>
+      <c r="B91">
         <v>1.292891743919795</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>CN 2007-09-11</t>
-        </is>
-      </c>
     </row>
     <row r="92">
-      <c r="B92" t="inlineStr">
+      <c r="A92" t="inlineStr">
         <is>
           <t>CN 2007-10-15</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CN 2007-11-15</t>
+        </is>
+      </c>
+      <c r="B93">
         <v>0.4092561130939449</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>CN 2007-11-15</t>
-        </is>
-      </c>
     </row>
     <row r="94">
-      <c r="B94" t="inlineStr">
+      <c r="A94" t="inlineStr">
         <is>
           <t>CN 2007-12-13</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="inlineStr">
+      <c r="A95" t="inlineStr">
         <is>
           <t>CN 2008-01-17</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CN 2008-02-19</t>
+        </is>
+      </c>
+      <c r="B96">
         <v>0.3124697787424062</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>CN 2008-02-19</t>
-        </is>
-      </c>
     </row>
     <row r="97">
-      <c r="A97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CN 2008-03-18</t>
+        </is>
+      </c>
+      <c r="B97">
         <v>0.7726789403592991</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>CN 2008-03-18</t>
-        </is>
-      </c>
     </row>
     <row r="98">
-      <c r="A98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MP 2006-04-20</t>
+        </is>
+      </c>
+      <c r="B98">
         <v>0.403693276623143</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>MP 2006-04-20</t>
-        </is>
-      </c>
     </row>
     <row r="99">
-      <c r="A99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MP 2006-05-18</t>
+        </is>
+      </c>
+      <c r="B99">
         <v>1.018158789743072</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>MP 2006-05-18</t>
-        </is>
-      </c>
     </row>
     <row r="100">
-      <c r="A100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MP 2006-06-15</t>
+        </is>
+      </c>
+      <c r="B100">
         <v>0.8630261626453746</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>MP 2006-06-15</t>
-        </is>
-      </c>
     </row>
     <row r="101">
-      <c r="A101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MP 2006-08-10</t>
+        </is>
+      </c>
+      <c r="B101">
         <v>1.384168769858198</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>MP 2006-08-10</t>
-        </is>
-      </c>
     </row>
     <row r="102">
-      <c r="A102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MP 2006-09-07</t>
+        </is>
+      </c>
+      <c r="B102">
         <v>0.9665260110924309</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>MP 2006-09-07</t>
-        </is>
-      </c>
     </row>
     <row r="103">
-      <c r="A103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MP 2006-10-05</t>
+        </is>
+      </c>
+      <c r="B103">
         <v>1.200894786175743</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>MP 2006-10-05</t>
-        </is>
-      </c>
     </row>
     <row r="104">
-      <c r="A104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MP 2006-11-02</t>
+        </is>
+      </c>
+      <c r="B104">
         <v>0.9677998102676965</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>MP 2006-11-02</t>
-        </is>
-      </c>
     </row>
     <row r="105">
-      <c r="A105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MP 2006-11-30</t>
+        </is>
+      </c>
+      <c r="B105">
         <v>0.5683312211864912</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>MP 2006-11-30</t>
-        </is>
-      </c>
     </row>
     <row r="106">
-      <c r="A106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MP 2006-12-20</t>
+        </is>
+      </c>
+      <c r="B106">
         <v>0.7405197411432577</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>MP 2006-12-20</t>
-        </is>
-      </c>
     </row>
     <row r="107">
-      <c r="A107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MP 2007-01-24</t>
+        </is>
+      </c>
+      <c r="B107">
         <v>1.54318629524265</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>MP 2007-01-24</t>
-        </is>
-      </c>
     </row>
     <row r="108">
-      <c r="A108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MP 2007-02-15</t>
+        </is>
+      </c>
+      <c r="B108">
         <v>0.646658330197027</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>MP 2007-02-15</t>
-        </is>
-      </c>
     </row>
     <row r="109">
-      <c r="A109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MP 2007-03-15</t>
+        </is>
+      </c>
+      <c r="B109">
         <v>0.9803101974346955</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>MP 2007-03-15</t>
-        </is>
-      </c>
     </row>
     <row r="110">
-      <c r="A110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MP 2007-04-19</t>
+        </is>
+      </c>
+      <c r="B110">
         <v>1.263462297524134</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>MP 2007-04-19</t>
-        </is>
-      </c>
     </row>
     <row r="111">
-      <c r="A111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MP 2007-05-17</t>
+        </is>
+      </c>
+      <c r="B111">
         <v>0.8918118824676219</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>MP 2007-05-17</t>
-        </is>
-      </c>
     </row>
     <row r="112">
-      <c r="A112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MP 2007-07-16</t>
+        </is>
+      </c>
+      <c r="B112">
         <v>3.167867196769605</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>MP 2007-07-16</t>
-        </is>
-      </c>
     </row>
     <row r="113">
-      <c r="A113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MP 2007-08-08</t>
+        </is>
+      </c>
+      <c r="B113">
         <v>2.387632909796011</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>MP 2007-08-08</t>
-        </is>
-      </c>
     </row>
     <row r="114">
-      <c r="A114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MP 2007-09-11</t>
+        </is>
+      </c>
+      <c r="B114">
         <v>1.67733127395628</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>MP 2007-09-11</t>
-        </is>
-      </c>
     </row>
     <row r="115">
-      <c r="A115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MP 2007-10-15</t>
+        </is>
+      </c>
+      <c r="B115">
         <v>1.543195893062574</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>MP 2007-10-15</t>
-        </is>
-      </c>
     </row>
     <row r="116">
-      <c r="A116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MP 2007-11-15</t>
+        </is>
+      </c>
+      <c r="B116">
         <v>0.5861735346867899</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>MP 2007-11-15</t>
-        </is>
-      </c>
     </row>
     <row r="117">
-      <c r="A117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MP 2007-12-13</t>
+        </is>
+      </c>
+      <c r="B117">
         <v>1.045637834416685</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>MP 2007-12-13</t>
-        </is>
-      </c>
     </row>
     <row r="118">
-      <c r="A118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MP 2008-01-17</t>
+        </is>
+      </c>
+      <c r="B118">
         <v>0.9350184123954335</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>MP 2008-01-17</t>
-        </is>
-      </c>
     </row>
     <row r="119">
-      <c r="A119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MP 2008-02-19</t>
+        </is>
+      </c>
+      <c r="B119">
         <v>0</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>MP 2008-02-19</t>
-        </is>
-      </c>
     </row>
     <row r="120">
-      <c r="A120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MP 2008-03-18</t>
+        </is>
+      </c>
+      <c r="B120">
         <v>0.9171318964827426</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>MP 2008-03-18</t>
-        </is>
-      </c>
     </row>
     <row r="121">
-      <c r="A121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TP 2006-04-20</t>
+        </is>
+      </c>
+      <c r="B121">
         <v>1.026768763180631</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>TP 2006-04-20</t>
-        </is>
-      </c>
     </row>
     <row r="122">
-      <c r="A122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TP 2006-05-18</t>
+        </is>
+      </c>
+      <c r="B122">
         <v>0.6248726559015475</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>TP 2006-05-18</t>
-        </is>
-      </c>
     </row>
     <row r="123">
-      <c r="A123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>TP 2006-06-15</t>
+        </is>
+      </c>
+      <c r="B123">
         <v>0.7244992601486647</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>TP 2006-06-15</t>
-        </is>
-      </c>
     </row>
     <row r="124">
-      <c r="A124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>TP 2006-07-13</t>
+        </is>
+      </c>
+      <c r="B124">
         <v>2.360171674088278</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>TP 2006-07-13</t>
-        </is>
-      </c>
     </row>
     <row r="125">
-      <c r="A125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TP 2006-08-10</t>
+        </is>
+      </c>
+      <c r="B125">
         <v>2.041096739795821</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>TP 2006-08-10</t>
-        </is>
-      </c>
     </row>
     <row r="126">
-      <c r="A126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>TP 2006-11-02</t>
+        </is>
+      </c>
+      <c r="B126">
         <v>2.604881137844109</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>TP 2006-11-02</t>
-        </is>
-      </c>
     </row>
     <row r="127">
-      <c r="A127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TP 2006-11-30</t>
+        </is>
+      </c>
+      <c r="B127">
         <v>0.9106216375507346</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>TP 2006-11-30</t>
-        </is>
-      </c>
     </row>
     <row r="128">
-      <c r="A128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>TP 2006-12-20</t>
+        </is>
+      </c>
+      <c r="B128">
         <v>0.7939045002889128</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>TP 2006-12-20</t>
-        </is>
-      </c>
     </row>
     <row r="129">
-      <c r="A129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>TP 2007-01-24</t>
+        </is>
+      </c>
+      <c r="B129">
         <v>0.132368418796195</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>TP 2007-01-24</t>
-        </is>
-      </c>
     </row>
     <row r="130">
-      <c r="A130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TP 2007-02-15</t>
+        </is>
+      </c>
+      <c r="B130">
         <v>1.022812978728179</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>TP 2007-02-15</t>
-        </is>
-      </c>
     </row>
     <row r="131">
-      <c r="A131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>TP 2007-03-15</t>
+        </is>
+      </c>
+      <c r="B131">
         <v>1.128691846732926</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>TP 2007-03-15</t>
-        </is>
-      </c>
     </row>
     <row r="132">
-      <c r="A132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>TP 2007-04-19</t>
+        </is>
+      </c>
+      <c r="B132">
         <v>0.7689492704068163</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>TP 2007-04-19</t>
-        </is>
-      </c>
     </row>
     <row r="133">
-      <c r="A133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>TP 2007-05-17</t>
+        </is>
+      </c>
+      <c r="B133">
         <v>0.6991664763679767</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>TP 2007-05-17</t>
-        </is>
-      </c>
     </row>
     <row r="134">
-      <c r="A134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>TP 2007-06-14</t>
+        </is>
+      </c>
+      <c r="B134">
         <v>2.059790854636199</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>TP 2007-06-14</t>
-        </is>
-      </c>
     </row>
     <row r="135">
-      <c r="A135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TP 2007-07-16</t>
+        </is>
+      </c>
+      <c r="B135">
         <v>4.320374135535593</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>TP 2007-07-16</t>
-        </is>
-      </c>
     </row>
     <row r="136">
-      <c r="A136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>TP 2007-08-08</t>
+        </is>
+      </c>
+      <c r="B136">
         <v>1.314242529909834</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>TP 2007-08-08</t>
-        </is>
-      </c>
     </row>
     <row r="137">
-      <c r="A137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TP 2007-09-11</t>
+        </is>
+      </c>
+      <c r="B137">
         <v>3.414799156045417</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>TP 2007-09-11</t>
-        </is>
-      </c>
     </row>
     <row r="138">
-      <c r="A138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>TP 2007-10-15</t>
+        </is>
+      </c>
+      <c r="B138">
         <v>1.774920078154649</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>TP 2007-10-15</t>
-        </is>
-      </c>
     </row>
     <row r="139">
-      <c r="A139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>TP 2007-11-15</t>
+        </is>
+      </c>
+      <c r="B139">
         <v>0.8106567594447419</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>TP 2007-11-15</t>
-        </is>
-      </c>
     </row>
     <row r="140">
-      <c r="A140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TP 2007-12-13</t>
+        </is>
+      </c>
+      <c r="B140">
         <v>0.4569109503118013</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>TP 2007-12-13</t>
-        </is>
-      </c>
     </row>
     <row r="141">
-      <c r="A141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>TP 2008-01-17</t>
+        </is>
+      </c>
+      <c r="B141">
         <v>0.4217631786644312</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>TP 2008-01-17</t>
-        </is>
-      </c>
     </row>
     <row r="142">
-      <c r="A142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TP 2008-02-19</t>
+        </is>
+      </c>
+      <c r="B142">
         <v>0.5359597070045018</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>TP 2008-02-19</t>
-        </is>
-      </c>
     </row>
     <row r="143">
-      <c r="A143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>TP 2008-03-18</t>
+        </is>
+      </c>
+      <c r="B143">
         <v>0.3302403045363838</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>TP 2008-03-18</t>
-        </is>
       </c>
     </row>
   </sheetData>
